--- a/src/main/resources/monitoradoresModelo.xlsx
+++ b/src/main/resources/monitoradoresModelo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davi\IdeaProjects\Projeto_Estagio\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830283BE-83E1-4F0C-AA53-BD5E3CFF8057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C89CE9-1E16-40C0-8FEC-3DB65F70137B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31680" yWindow="3825" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monitoradores" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Tipo</t>
   </si>
@@ -49,80 +49,37 @@
     <t>Ativo</t>
   </si>
   <si>
-    <t>Fisica</t>
-  </si>
-  <si>
-    <t>367.686.060-85</t>
-  </si>
-  <si>
-    <t>Lucas Bernades Feitosa</t>
-  </si>
-  <si>
-    <t>lucasbernades@gmail.com</t>
-  </si>
-  <si>
-    <t>39.713.613-4</t>
-  </si>
-  <si>
-    <t>16/11/2003</t>
-  </si>
-  <si>
     <t>Sim</t>
   </si>
   <si>
-    <t>914.610.230-25</t>
-  </si>
-  <si>
-    <t>Erik</t>
-  </si>
-  <si>
-    <t>erick@gmail.com</t>
-  </si>
-  <si>
-    <t>18.420.368-5</t>
-  </si>
-  <si>
-    <t>01/09/2003</t>
-  </si>
-  <si>
-    <t>407.049.270-47</t>
-  </si>
-  <si>
-    <t>Jonas Duarte</t>
-  </si>
-  <si>
-    <t>jonas@gmail.com</t>
-  </si>
-  <si>
-    <t>40.829.011-0</t>
-  </si>
-  <si>
-    <t>02/01/2000</t>
-  </si>
-  <si>
-    <t>405.999.570-34</t>
-  </si>
-  <si>
-    <t>Davi Gonçalves</t>
-  </si>
-  <si>
-    <t>davi@gmail</t>
-  </si>
-  <si>
-    <t>20.800.357-5</t>
-  </si>
-  <si>
-    <t>30/06/2001</t>
+    <t>36.332.973/0001-75</t>
+  </si>
+  <si>
+    <t>Juridica</t>
+  </si>
+  <si>
+    <t>CholasERP</t>
+  </si>
+  <si>
+    <t>chola@gmail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -145,13 +102,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -464,147 +426,347 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.140625" customWidth="1"/>
     <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2">
+        <v>465465879</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{D33143E7-631C-48AE-BF2B-0A168E5B9496}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>